--- a/D1 mini pin-out.xlsx
+++ b/D1 mini pin-out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fouchet_F\Documents\FabLab\PontTournant\ESP8266\PontTournant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D047CE5F-1866-4AA8-95AE-8928427F003A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D895ED97-4116-4AFD-9264-69B4EC8DE0C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="315" windowWidth="19695" windowHeight="15285" xr2:uid="{9681CD7C-A6E7-44E1-988E-193C12B07DDC}"/>
+    <workbookView xWindow="540" yWindow="2175" windowWidth="25425" windowHeight="13290" xr2:uid="{9681CD7C-A6E7-44E1-988E-193C12B07DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin" sheetId="1" r:id="rId1"/>
@@ -366,10 +366,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,7 +690,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -867,8 +867,8 @@
       <c r="G8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>32</v>
+      <c r="H8" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,8 +889,8 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="13" t="s">
-        <v>32</v>
+      <c r="H9" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -940,11 +940,11 @@
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>77</v>
+      <c r="H12" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,9 +966,9 @@
       <c r="F13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="7" t="s">
-        <v>78</v>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/D1 mini pin-out.xlsx
+++ b/D1 mini pin-out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fouchet_F\Documents\FabLab\PontTournant\ESP8266\PontTournant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fouchet_F\Documents\FabLab\PontTournant\PontTournant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D895ED97-4116-4AFD-9264-69B4EC8DE0C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE2D99-B1B8-4B4D-9C68-1CD156ED79DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="2175" windowWidth="25425" windowHeight="13290" xr2:uid="{9681CD7C-A6E7-44E1-988E-193C12B07DDC}"/>
+    <workbookView xWindow="4110" yWindow="2310" windowWidth="22935" windowHeight="13290" xr2:uid="{9681CD7C-A6E7-44E1-988E-193C12B07DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Pin</t>
   </si>
@@ -258,9 +258,6 @@
     <t>USB</t>
   </si>
   <si>
-    <t>MP3 module</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -277,6 +274,12 @@
   </si>
   <si>
     <t>Stepper direction</t>
+  </si>
+  <si>
+    <t>MP3 TX</t>
+  </si>
+  <si>
+    <t>MP3 RX</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +809,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="H5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,8 +826,8 @@
       <c r="F6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>82</v>
+      <c r="H6" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -843,8 +846,8 @@
         <v>71</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
-        <v>83</v>
+      <c r="H7" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,7 +871,7 @@
         <v>74</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,9 +892,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -907,7 +908,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,7 +926,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="3"/>
       <c r="H11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -943,8 +944,8 @@
       <c r="G12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>32</v>
+      <c r="H12" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,8 +968,8 @@
         <v>72</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="12" t="s">
-        <v>32</v>
+      <c r="H13" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/D1 mini pin-out.xlsx
+++ b/D1 mini pin-out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fouchet_F\Documents\FabLab\PontTournant\PontTournant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE2D99-B1B8-4B4D-9C68-1CD156ED79DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3637FC-B85A-43B2-83E1-8D94686C36C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="2310" windowWidth="22935" windowHeight="13290" xr2:uid="{9681CD7C-A6E7-44E1-988E-193C12B07DDC}"/>
+    <workbookView xWindow="3930" yWindow="930" windowWidth="22935" windowHeight="13290" xr2:uid="{9681CD7C-A6E7-44E1-988E-193C12B07DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>Pin</t>
   </si>
@@ -280,6 +280,21 @@
   </si>
   <si>
     <t>MP3 RX</t>
+  </si>
+  <si>
+    <t>Couleur</t>
+  </si>
+  <si>
+    <t>Jaune</t>
+  </si>
+  <si>
+    <t>Vert</t>
+  </si>
+  <si>
+    <t>Blanc</t>
+  </si>
+  <si>
+    <t>Violet</t>
   </si>
 </sst>
 </file>
@@ -338,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -370,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -690,10 +708,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B39CD0D-5301-4E94-A287-A9FFA99EC859}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +726,7 @@
     <col min="8" max="8" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,8 +751,11 @@
       <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -750,8 +771,9 @@
       <c r="H2" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -771,8 +793,9 @@
       <c r="H3" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -792,8 +815,9 @@
       <c r="H4" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -811,8 +835,12 @@
       <c r="H5" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -829,8 +857,11 @@
       <c r="H6" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -849,8 +880,11 @@
       <c r="H7" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -873,8 +907,11 @@
       <c r="H8" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -893,8 +930,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -910,8 +948,11 @@
       <c r="H10" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -928,8 +969,11 @@
       <c r="H11" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -941,14 +985,17 @@
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -967,12 +1014,15 @@
       <c r="F13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
@@ -988,7 +1038,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1054,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
